--- a/AdultIncome/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs_LR_Traning_on_X_fit.xlsx
+++ b/AdultIncome/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs_LR_Traning_on_X_fit.xlsx
@@ -502,16 +502,16 @@
         <v>27133</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999031529676498</v>
+        <v>0.9994040968309581</v>
       </c>
       <c r="H2" t="n">
-        <v>7.428e-05</v>
+        <v>4e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9992318107235192</v>
+        <v>0.9995291906089616</v>
       </c>
       <c r="J2" t="n">
-        <v>2.55e-05</v>
+        <v>2.499e-05</v>
       </c>
     </row>
     <row r="3">
@@ -536,13 +536,13 @@
         <v>27133</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5966478564810915</v>
+        <v>0.3826314071172054</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7241817072048653</v>
+        <v>0.6133632875616863</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.04545455</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.04166667</v>
       </c>
     </row>
     <row r="5">
@@ -604,16 +604,16 @@
         <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08823528999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.9027777777777777</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.09722222</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9166666666666667</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -672,16 +672,16 @@
         <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9161962657403386</v>
+        <v>0.9893617021276595</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02257924</v>
+        <v>0.0106383</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7564935064935066</v>
+        <v>0.9895833333333334</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02922078</v>
+        <v>0.01041667</v>
       </c>
     </row>
   </sheetData>
